--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
   <si>
     <t>Doi</t>
   </si>
@@ -192,6 +192,146 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,    Shaowen%Zhang%NULL%2,    Shaowen%Zhang%NULL%0,    Zhangfan%Mao%NULL%1,    Weixing%Wang%13392186@qq.com%1,    Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background/objectives
+To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
+Subjects/methods
+id="Par2"&gt;In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
+ Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
+ Regression analysis was conducted to screen for risk factors for malnutrition.
+Results
+id="Par3"&gt;A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
+ There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
+ Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
+Conclusions
+id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,     Yalan%Zhang%NULL%2,     Yalan%Zhang%NULL%0,     Cheng%Gong%NULL%1,     Jing%Wang%NULL%0,     Bao%Liu%NULL%1,     Li%Shi%NULL%1,     Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
+Methods
+id="Par2"&gt;We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
+Results
+id="Par3"&gt;A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
+ NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
+ The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
+ After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
+Conclusions
+id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
+</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,     Shaowen%Zhang%NULL%2,     Shaowen%Zhang%NULL%0,     Zhangfan%Mao%NULL%1,     Weixing%Wang%13392186@qq.com%1,     Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background/objectives
+To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
+Subjects/methods
+In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
+ Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
+ Regression analysis was conducted to screen for risk factors for malnutrition.
+Results
+id="Par3"&gt;A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
+ There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
+ Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
+Conclusions
+id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,      Yalan%Zhang%NULL%2,      Yalan%Zhang%NULL%0,      Cheng%Gong%NULL%1,      Jing%Wang%NULL%1,      Bao%Liu%NULL%1,      Li%Shi%NULL%1,      Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
+Methods
+We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
+Results
+id="Par3"&gt;A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
+ NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
+ The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
+ After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
+Conclusions
+id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
+</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,      Shaowen%Zhang%NULL%2,      Shaowen%Zhang%NULL%0,      Zhangfan%Mao%NULL%1,      Weixing%Wang%13392186@qq.com%1,      Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background/objectives
+To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
+Subjects/methods
+In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
+ Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
+ Regression analysis was conducted to screen for risk factors for malnutrition.
+Results
+A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
+ There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
+ Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
+Conclusions
+id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,       Yalan%Zhang%NULL%2,       Yalan%Zhang%NULL%0,       Cheng%Gong%NULL%1,       Jing%Wang%NULL%1,       Bao%Liu%NULL%1,       Li%Shi%NULL%1,       Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
+Methods
+We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
+Results
+A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
+ NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
+ The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
+ After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
+Conclusions
+id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
+</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,       Shaowen%Zhang%NULL%2,       Shaowen%Zhang%NULL%0,       Zhangfan%Mao%NULL%1,       Weixing%Wang%13392186@qq.com%1,       Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background/objectives
+To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
+Subjects/methods
+In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
+ Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
+ Regression analysis was conducted to screen for risk factors for malnutrition.
+Results
+A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
+ There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
+ Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
+Conclusions
+The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,        Yalan%Zhang%NULL%2,        Yalan%Zhang%NULL%0,        Cheng%Gong%NULL%1,        Jing%Wang%NULL%1,        Bao%Liu%NULL%1,        Li%Shi%NULL%1,        Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
+Methods
+We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
+Results
+A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
+ NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
+ The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
+ After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
+Conclusions
+The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
+</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,        Shaowen%Zhang%NULL%2,        Shaowen%Zhang%NULL%0,        Zhangfan%Mao%NULL%1,        Weixing%Wang%13392186@qq.com%1,        Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -526,10 +666,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -578,10 +718,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>Doi</t>
   </si>
@@ -192,146 +192,6 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,    Shaowen%Zhang%NULL%2,    Shaowen%Zhang%NULL%0,    Zhangfan%Mao%NULL%1,    Weixing%Wang%13392186@qq.com%1,    Haifeng%Hu%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background/objectives
-To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
-Subjects/methods
-id="Par2"&gt;In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
- Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
- Regression analysis was conducted to screen for risk factors for malnutrition.
-Results
-id="Par3"&gt;A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
- There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
- Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
-Conclusions
-id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
-</t>
-  </si>
-  <si>
-    <t>[Tao%Li%NULL%1,     Yalan%Zhang%NULL%2,     Yalan%Zhang%NULL%0,     Cheng%Gong%NULL%1,     Jing%Wang%NULL%0,     Bao%Liu%NULL%1,     Li%Shi%NULL%1,     Jun%Duan%junjununun@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
-Methods
-id="Par2"&gt;We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
-Results
-id="Par3"&gt;A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
- NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
- The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
- After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
-Conclusions
-id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
-</t>
-  </si>
-  <si>
-    <t>[Gaoli%Liu%NULL%1,     Shaowen%Zhang%NULL%2,     Shaowen%Zhang%NULL%0,     Zhangfan%Mao%NULL%1,     Weixing%Wang%13392186@qq.com%1,     Haifeng%Hu%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background/objectives
-To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
-Subjects/methods
-In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
- Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
- Regression analysis was conducted to screen for risk factors for malnutrition.
-Results
-id="Par3"&gt;A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
- There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
- Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
-Conclusions
-id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
-</t>
-  </si>
-  <si>
-    <t>[Tao%Li%NULL%1,      Yalan%Zhang%NULL%2,      Yalan%Zhang%NULL%0,      Cheng%Gong%NULL%1,      Jing%Wang%NULL%1,      Bao%Liu%NULL%1,      Li%Shi%NULL%1,      Jun%Duan%junjununun@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
-Methods
-We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
-Results
-id="Par3"&gt;A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
- NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
- The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
- After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
-Conclusions
-id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
-</t>
-  </si>
-  <si>
-    <t>[Gaoli%Liu%NULL%1,      Shaowen%Zhang%NULL%2,      Shaowen%Zhang%NULL%0,      Zhangfan%Mao%NULL%1,      Weixing%Wang%13392186@qq.com%1,      Haifeng%Hu%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background/objectives
-To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
-Subjects/methods
-In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
- Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
- Regression analysis was conducted to screen for risk factors for malnutrition.
-Results
-A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
- There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
- Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
-Conclusions
-id="Par4"&gt;The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
-</t>
-  </si>
-  <si>
-    <t>[Tao%Li%NULL%1,       Yalan%Zhang%NULL%2,       Yalan%Zhang%NULL%0,       Cheng%Gong%NULL%1,       Jing%Wang%NULL%1,       Bao%Liu%NULL%1,       Li%Shi%NULL%1,       Jun%Duan%junjununun@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
-Methods
-We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
-Results
-A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
- NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
- The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
- After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
-Conclusions
-id="Par4"&gt;The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
-</t>
-  </si>
-  <si>
-    <t>[Gaoli%Liu%NULL%1,       Shaowen%Zhang%NULL%2,       Shaowen%Zhang%NULL%0,       Zhangfan%Mao%NULL%1,       Weixing%Wang%13392186@qq.com%1,       Haifeng%Hu%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background/objectives
-To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
-Subjects/methods
-In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
- Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
- Regression analysis was conducted to screen for risk factors for malnutrition.
-Results
-A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
- There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
- Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
-Conclusions
-The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
-</t>
-  </si>
-  <si>
-    <t>[Tao%Li%NULL%1,        Yalan%Zhang%NULL%2,        Yalan%Zhang%NULL%0,        Cheng%Gong%NULL%1,        Jing%Wang%NULL%1,        Bao%Liu%NULL%1,        Li%Shi%NULL%1,        Jun%Duan%junjununun@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
-Methods
-We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
-Results
-A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
- NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
- The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
- After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
-Conclusions
-The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
-</t>
-  </si>
-  <si>
-    <t>[Gaoli%Liu%NULL%1,        Shaowen%Zhang%NULL%2,        Shaowen%Zhang%NULL%0,        Zhangfan%Mao%NULL%1,        Weixing%Wang%13392186@qq.com%1,        Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -666,10 +526,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -718,10 +578,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
   <si>
     <t>Doi</t>
   </si>
@@ -192,6 +192,27 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,    Shaowen%Zhang%NULL%2,    Shaowen%Zhang%NULL%0,    Zhangfan%Mao%NULL%1,    Weixing%Wang%13392186@qq.com%1,    Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,     Zhigang%He%NULL%1,     Gang%Yu%NULL%1,     Dan%Peng%NULL%1,     Yikuan%Feng%NULL%1,     Jianmin%Ling%NULL%1,     Ye%Wang%NULL%1,     Shusheng%Li%NULL%0,     Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,     Yalan%Zhang%NULL%2,     Yalan%Zhang%NULL%0,     Cheng%Gong%NULL%1,     Jing%Wang%NULL%2,     Bao%Liu%NULL%1,     Li%Shi%NULL%1,     Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,     Shaowen%Zhang%NULL%2,     Shaowen%Zhang%NULL%0,     Zhangfan%Mao%NULL%1,     Weixing%Wang%13392186@qq.com%1,     Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -488,6 +509,9 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -503,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -513,6 +537,9 @@
       </c>
       <c r="H2" t="s">
         <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +556,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -539,6 +566,9 @@
       </c>
       <c r="H3" t="s">
         <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -558,13 +588,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +614,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -591,6 +624,9 @@
       </c>
       <c r="H5" t="s">
         <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="61">
   <si>
     <t>Doi</t>
   </si>
@@ -213,6 +213,33 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,     Shaowen%Zhang%NULL%2,     Shaowen%Zhang%NULL%0,     Zhangfan%Mao%NULL%1,     Weixing%Wang%13392186@qq.com%1,     Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,      Zhigang%He%NULL%1,      Gang%Yu%NULL%1,      Dan%Peng%NULL%1,      Yikuan%Feng%NULL%1,      Jianmin%Ling%NULL%1,      Ye%Wang%NULL%1,      Shusheng%Li%NULL%0,      Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,      Yalan%Zhang%NULL%2,      Yalan%Zhang%NULL%0,      Cheng%Gong%NULL%1,      Jing%Wang%NULL%0,      Bao%Liu%NULL%1,      Li%Shi%NULL%1,      Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,      Shaowen%Zhang%NULL%2,      Shaowen%Zhang%NULL%0,      Zhangfan%Mao%NULL%1,      Weixing%Wang%13392186@qq.com%1,      Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,       Zhigang%He%NULL%1,       Gang%Yu%NULL%1,       Dan%Peng%NULL%1,       Yikuan%Feng%NULL%1,       Jianmin%Ling%NULL%1,       Ye%Wang%NULL%1,       Shusheng%Li%NULL%0,       Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,       Yalan%Zhang%NULL%2,       Yalan%Zhang%NULL%0,       Cheng%Gong%NULL%1,       Jing%Wang%NULL%0,       Bao%Liu%NULL%1,       Li%Shi%NULL%1,       Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,       Shaowen%Zhang%NULL%2,       Shaowen%Zhang%NULL%0,       Zhangfan%Mao%NULL%1,       Weixing%Wang%13392186@qq.com%1,       Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,        Zhigang%He%NULL%1,        Gang%Yu%NULL%1,        Dan%Peng%NULL%1,        Yikuan%Feng%NULL%1,        Jianmin%Ling%NULL%1,        Ye%Wang%NULL%1,        Shusheng%Li%NULL%0,        Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,        Yalan%Zhang%NULL%2,        Yalan%Zhang%NULL%0,        Cheng%Gong%NULL%1,        Jing%Wang%NULL%0,        Bao%Liu%NULL%1,        Li%Shi%NULL%1,        Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,        Shaowen%Zhang%NULL%2,        Shaowen%Zhang%NULL%0,        Zhangfan%Mao%NULL%1,        Weixing%Wang%13392186@qq.com%1,        Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +554,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -556,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -614,7 +641,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="67">
   <si>
     <t>Doi</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,        Shaowen%Zhang%NULL%2,        Shaowen%Zhang%NULL%0,        Zhangfan%Mao%NULL%1,        Weixing%Wang%13392186@qq.com%1,        Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,         Zhigang%He%NULL%1,         Gang%Yu%NULL%1,         Dan%Peng%NULL%1,         Yikuan%Feng%NULL%1,         Jianmin%Ling%NULL%1,         Ye%Wang%NULL%1,         Shusheng%Li%NULL%0,         Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,         Yalan%Zhang%NULL%2,         Yalan%Zhang%NULL%0,         Cheng%Gong%NULL%1,         Jing%Wang%NULL%0,         Bao%Liu%NULL%1,         Li%Shi%NULL%1,         Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,         Shaowen%Zhang%NULL%2,         Shaowen%Zhang%NULL%0,         Zhangfan%Mao%NULL%1,         Weixing%Wang%13392186@qq.com%1,         Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,          Zhigang%He%NULL%1,          Gang%Yu%NULL%1,          Dan%Peng%NULL%1,          Yikuan%Feng%NULL%1,          Jianmin%Ling%NULL%1,          Ye%Wang%NULL%1,          Shusheng%Li%NULL%0,          Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,          Yalan%Zhang%NULL%2,          Yalan%Zhang%NULL%0,          Cheng%Gong%NULL%1,          Jing%Wang%NULL%0,          Bao%Liu%NULL%1,          Li%Shi%NULL%1,          Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,          Shaowen%Zhang%NULL%2,          Shaowen%Zhang%NULL%0,          Zhangfan%Mao%NULL%1,          Weixing%Wang%13392186@qq.com%1,          Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -583,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -641,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="73">
   <si>
     <t>Doi</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,          Shaowen%Zhang%NULL%2,          Shaowen%Zhang%NULL%0,          Zhangfan%Mao%NULL%1,          Weixing%Wang%13392186@qq.com%1,          Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,           Zhigang%He%NULL%1,           Gang%Yu%NULL%1,           Dan%Peng%NULL%1,           Yikuan%Feng%NULL%1,           Jianmin%Ling%NULL%1,           Ye%Wang%NULL%1,           Shusheng%Li%NULL%0,           Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,           Yalan%Zhang%NULL%2,           Yalan%Zhang%NULL%0,           Cheng%Gong%NULL%1,           Jing%Wang%NULL%0,           Bao%Liu%NULL%1,           Li%Shi%NULL%1,           Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,           Shaowen%Zhang%NULL%2,           Shaowen%Zhang%NULL%0,           Zhangfan%Mao%NULL%1,           Weixing%Wang%13392186@qq.com%1,           Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,            Zhigang%He%NULL%1,            Gang%Yu%NULL%1,            Dan%Peng%NULL%1,            Yikuan%Feng%NULL%1,            Jianmin%Ling%NULL%1,            Ye%Wang%NULL%1,            Shusheng%Li%NULL%0,            Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,            Yalan%Zhang%NULL%2,            Yalan%Zhang%NULL%0,            Cheng%Gong%NULL%1,            Jing%Wang%NULL%0,            Bao%Liu%NULL%1,            Li%Shi%NULL%1,            Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,            Shaowen%Zhang%NULL%2,            Shaowen%Zhang%NULL%0,            Zhangfan%Mao%NULL%1,            Weixing%Wang%13392186@qq.com%1,            Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -572,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -601,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -659,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="81">
   <si>
     <t>Doi</t>
   </si>
@@ -276,6 +276,53 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,            Shaowen%Zhang%NULL%2,            Shaowen%Zhang%NULL%0,            Zhangfan%Mao%NULL%1,            Weixing%Wang%13392186@qq.com%1,            Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,             Zhigang%He%NULL%1,             Gang%Yu%NULL%1,             Dan%Peng%NULL%1,             Yikuan%Feng%NULL%1,             Jianmin%Ling%NULL%1,             Ye%Wang%NULL%1,             Shusheng%Li%NULL%0,             Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background/objectives
+To evaluate the prevalence of malnutrition and its related factors in elderly patients with COVID-19 in Wuhan, China.
+Subjects/methods
+In a cross-sectional study, we evaluated the nutritional status of elderly inpatients with COVID-19 using the Mini Nutritional Assessment (MNA).
+ Based on MNA scores, patients were divided into non-malnutrition group (MNA ≥ 24), the group with risk of malnutrition (MNA 17–23.5) and malnutrition group (MNA score &amp;lt; 17).
+ Regression analysis was conducted to screen for risk factors for malnutrition.
+Results
+A total of 182 patients were included in the study, of which 27.5% were in the group with malnutrition risk and 52.7% were in the malnutrition group.
+ There were statistical differences in the incidence of comorbid diabetes mellitus, body mass index (BMI), calf circumference,albumin, hemoglobin, and lymphocyte counts among the three groups.
+ Further regression analysis suggested that combined diabetes, low calf circumference, and low albumin were independent risk factors for malnutrition.
+Conclusions
+The prevalence of malnutrition in elderly patients with COVID-19 was high, and nutritional support should be strengthened during treatment, especially for those with diabetes mellitus, low calf circumference, or low albumin.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,             Yalan%Zhang%NULL%2,             Yalan%Zhang%NULL%0,             Cheng%Gong%NULL%1,             Jing%Wang%NULL%0,             Bao%Liu%NULL%1,             Li%Shi%NULL%1,             Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+The aim of this study was to assess the nutritional risks among older patients with COVID-19 and their associated clinical outcomes using four nutritional risk screening (NRS) tools: Nutrition Risk Screening 2002 (NRS 2002), Malnutrition Universal Screening Tool (MUST), Mini Nutrition Assessment Shortcut (MNA-sf), and Nutrition Risk Index (NRI).
+Methods
+We retrospectively analyzed the data of patients with COVID-19 older than 65 years who were treated in our hospital from January 28, 2020 to March 5, 2020, and explored the relationship between nutritional risk and clinical outcomes.
+Results
+A total of 141 patients with COVID-19 (46 common COVID-19, 73 severe COVID-19, and 22 extremely severe COVID-19) were enrolled in the study.
+ NRS 2002 identified 85.8% of patients as having risk, with being identified 41.1% by MUST, 77.3% by MNA-sf, and 71.6% by NRI.
+ The agreement strength was moderate between NRS 2002 and MNA-sf, NRI, fair between MUST and MNA-sf, NRI, fair between MNA-sf and NRI, poor between NRS 2002 and MUST (P &amp;lt; 0.01).
+ After adjustment for confounding factors in multivariate regression analysis, patients in the risk group had significantly longer LOS, higher hospital expenses (except MNA-sf), poor appetite, heavier disease severity, and more weight change(kg) than normal patients by using NRS 2002, MNA-sf, and NRI(P &amp;lt; 0.05).
+Conclusions
+The NRS 2002, MNA-sf, and NRI are useful and practical tools with respect to screening for patients with COVID-19 who are at nutritional risk, as well as in need of additional nutritional intervention.
+</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,             Shaowen%Zhang%NULL%2,             Shaowen%Zhang%NULL%0,             Zhangfan%Mao%NULL%1,             Weixing%Wang%13392186@qq.com%1,             Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,              Zhigang%He%NULL%1,              Gang%Yu%NULL%1,              Dan%Peng%NULL%1,              Yikuan%Feng%NULL%1,              Jianmin%Ling%NULL%1,              Ye%Wang%NULL%1,              Shusheng%Li%NULL%0,              Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,              Yalan%Zhang%NULL%2,              Yalan%Zhang%NULL%0,              Cheng%Gong%NULL%1,              Jing%Wang%NULL%0,              Bao%Liu%NULL%1,              Li%Shi%NULL%1,              Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,              Shaowen%Zhang%NULL%2,              Shaowen%Zhang%NULL%0,              Zhangfan%Mao%NULL%1,              Weixing%Wang%13392186@qq.com%1,              Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -590,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -616,10 +663,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -674,10 +721,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="84">
   <si>
     <t>Doi</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,              Shaowen%Zhang%NULL%2,              Shaowen%Zhang%NULL%0,              Zhangfan%Mao%NULL%1,              Weixing%Wang%13392186@qq.com%1,              Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,               Zhigang%He%NULL%1,               Gang%Yu%NULL%1,               Dan%Peng%NULL%1,               Yikuan%Feng%NULL%1,               Jianmin%Ling%NULL%1,               Ye%Wang%NULL%1,               Shusheng%Li%NULL%0,               Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,               Yalan%Zhang%NULL%2,               Yalan%Zhang%NULL%0,               Cheng%Gong%NULL%1,               Jing%Wang%NULL%0,               Bao%Liu%NULL%1,               Li%Shi%NULL%1,               Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,               Shaowen%Zhang%NULL%2,               Shaowen%Zhang%NULL%0,               Zhangfan%Mao%NULL%1,               Weixing%Wang%13392186@qq.com%1,               Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -666,7 +675,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -724,7 +733,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="87">
   <si>
     <t>Doi</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,               Shaowen%Zhang%NULL%2,               Shaowen%Zhang%NULL%0,               Zhangfan%Mao%NULL%1,               Weixing%Wang%13392186@qq.com%1,               Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                Zhigang%He%NULL%1,                Gang%Yu%NULL%1,                Dan%Peng%NULL%1,                Yikuan%Feng%NULL%1,                Jianmin%Ling%NULL%1,                Ye%Wang%NULL%1,                Shusheng%Li%NULL%0,                Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                Yalan%Zhang%NULL%2,                Yalan%Zhang%NULL%0,                Cheng%Gong%NULL%1,                Jing%Wang%NULL%0,                Bao%Liu%NULL%1,                Li%Shi%NULL%1,                Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                Shaowen%Zhang%NULL%2,                Shaowen%Zhang%NULL%0,                Zhangfan%Mao%NULL%1,                Weixing%Wang%13392186@qq.com%1,                Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -675,7 +684,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -733,7 +742,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                Shaowen%Zhang%NULL%2,                Shaowen%Zhang%NULL%0,                Zhangfan%Mao%NULL%1,                Weixing%Wang%13392186@qq.com%1,                Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                 Zhigang%He%NULL%1,                 Gang%Yu%NULL%1,                 Dan%Peng%NULL%1,                 Yikuan%Feng%NULL%1,                 Jianmin%Ling%NULL%1,                 Ye%Wang%NULL%1,                 Shusheng%Li%NULL%0,                 Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                 Yalan%Zhang%NULL%2,                 Yalan%Zhang%NULL%0,                 Cheng%Gong%NULL%1,                 Jing%Wang%NULL%0,                 Bao%Liu%NULL%1,                 Li%Shi%NULL%1,                 Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                 Shaowen%Zhang%NULL%2,                 Shaowen%Zhang%NULL%0,                 Zhangfan%Mao%NULL%1,                 Weixing%Wang%13392186@qq.com%1,                 Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                  Zhigang%He%NULL%1,                  Gang%Yu%NULL%1,                  Dan%Peng%NULL%1,                  Yikuan%Feng%NULL%1,                  Jianmin%Ling%NULL%1,                  Ye%Wang%NULL%1,                  Shusheng%Li%NULL%0,                  Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                  Yalan%Zhang%NULL%2,                  Yalan%Zhang%NULL%0,                  Cheng%Gong%NULL%1,                  Jing%Wang%NULL%0,                  Bao%Liu%NULL%1,                  Li%Shi%NULL%1,                  Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                  Shaowen%Zhang%NULL%2,                  Shaowen%Zhang%NULL%0,                  Zhangfan%Mao%NULL%1,                  Weixing%Wang%13392186@qq.com%1,                  Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -655,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -684,7 +702,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -742,7 +760,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="96">
   <si>
     <t>Doi</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                  Shaowen%Zhang%NULL%2,                  Shaowen%Zhang%NULL%0,                  Zhangfan%Mao%NULL%1,                  Weixing%Wang%13392186@qq.com%1,                  Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                   Zhigang%He%NULL%1,                   Gang%Yu%NULL%1,                   Dan%Peng%NULL%1,                   Yikuan%Feng%NULL%1,                   Jianmin%Ling%NULL%1,                   Ye%Wang%NULL%1,                   Shusheng%Li%NULL%0,                   Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%2,                   Yalan%Zhang%NULL%2,                   Yalan%Zhang%NULL%0,                   Cheng%Gong%NULL%1,                   Jing%Wang%NULL%0,                   Bao%Liu%NULL%1,                   Li%Shi%NULL%1,                   Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                   Shaowen%Zhang%NULL%2,                   Shaowen%Zhang%NULL%0,                   Zhangfan%Mao%NULL%1,                   Weixing%Wang%13392186@qq.com%1,                   Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -673,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -702,7 +711,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -760,7 +769,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="105">
   <si>
     <t>Doi</t>
   </si>
@@ -368,6 +368,33 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                   Shaowen%Zhang%NULL%2,                   Shaowen%Zhang%NULL%0,                   Zhangfan%Mao%NULL%1,                   Weixing%Wang%13392186@qq.com%1,                   Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                    Zhigang%He%NULL%1,                    Gang%Yu%NULL%1,                    Dan%Peng%NULL%1,                    Yikuan%Feng%NULL%1,                    Jianmin%Ling%NULL%1,                    Ye%Wang%NULL%1,                    Shusheng%Li%NULL%0,                    Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                    Yalan%Zhang%NULL%2,                    Yalan%Zhang%NULL%0,                    Cheng%Gong%NULL%1,                    Jing%Wang%NULL%0,                    Bao%Liu%NULL%1,                    Li%Shi%NULL%1,                    Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>"Caution should be exercised for the detection of SARS\u2010CoV\u20102, especially in the elderly"</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1, Nan%Wang%xref no email%1, Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                    Shaowen%Zhang%NULL%2,                    Shaowen%Zhang%NULL%0,                    Zhangfan%Mao%NULL%1,                    Weixing%Wang%13392186@qq.com%1,                    Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -682,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -694,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -711,7 +738,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -723,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -734,22 +761,22 @@
         <v>44075.0</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
@@ -769,7 +796,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -781,7 +808,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                    Shaowen%Zhang%NULL%2,                    Shaowen%Zhang%NULL%0,                    Zhangfan%Mao%NULL%1,                    Weixing%Wang%13392186@qq.com%1,                    Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                     Zhigang%He%NULL%1,                     Gang%Yu%NULL%1,                     Dan%Peng%NULL%1,                     Yikuan%Feng%NULL%1,                     Jianmin%Ling%NULL%1,                     Ye%Wang%NULL%1,                     Shusheng%Li%NULL%0,                     Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                     Yalan%Zhang%NULL%2,                     Yalan%Zhang%NULL%0,                     Cheng%Gong%NULL%1,                     Jing%Wang%NULL%0,                     Bao%Liu%NULL%1,                     Li%Shi%NULL%1,                     Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,  Nan%Wang%xref no email%1,  Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                     Shaowen%Zhang%NULL%2,                     Shaowen%Zhang%NULL%0,                     Zhangfan%Mao%NULL%1,                     Weixing%Wang%13392186@qq.com%1,                     Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -738,7 +750,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -767,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -796,7 +808,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="130">
   <si>
     <t>Doi</t>
   </si>
@@ -407,6 +407,69 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                     Shaowen%Zhang%NULL%2,                     Shaowen%Zhang%NULL%0,                     Zhangfan%Mao%NULL%1,                     Weixing%Wang%13392186@qq.com%1,                     Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                      Zhigang%He%NULL%1,                      Gang%Yu%NULL%1,                      Dan%Peng%NULL%1,                      Yikuan%Feng%NULL%1,                      Jianmin%Ling%NULL%1,                      Ye%Wang%NULL%1,                      Shusheng%Li%NULL%0,                      Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                      Yalan%Zhang%NULL%2,                      Yalan%Zhang%NULL%0,                      Cheng%Gong%NULL%1,                      Jing%Wang%NULL%0,                      Bao%Liu%NULL%1,                      Li%Shi%NULL%1,                      Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%0, Nan%Wang%xref no email%1, Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                      Shaowen%Zhang%NULL%2,                      Shaowen%Zhang%NULL%0,                      Zhangfan%Mao%NULL%1,                      Weixing%Wang%13392186@qq.com%1,                      Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                       Zhigang%He%NULL%1,                       Gang%Yu%NULL%1,                       Dan%Peng%NULL%1,                       Yikuan%Feng%NULL%1,                       Jianmin%Ling%NULL%1,                       Ye%Wang%NULL%1,                       Shusheng%Li%NULL%0,                       Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                       Yalan%Zhang%NULL%2,                       Yalan%Zhang%NULL%0,                       Cheng%Gong%NULL%1,                       Jing%Wang%NULL%0,                       Bao%Liu%NULL%1,                       Li%Shi%NULL%1,                       Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                       Shaowen%Zhang%NULL%2,                       Shaowen%Zhang%NULL%0,                       Zhangfan%Mao%NULL%1,                       Weixing%Wang%13392186@qq.com%1,                       Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                        Zhigang%He%NULL%1,                        Gang%Yu%NULL%1,                        Dan%Peng%NULL%1,                        Yikuan%Feng%NULL%1,                        Jianmin%Ling%NULL%1,                        Ye%Wang%NULL%1,                        Shusheng%Li%NULL%0,                        Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                        Yalan%Zhang%NULL%2,                        Yalan%Zhang%NULL%0,                        Cheng%Gong%NULL%1,                        Jing%Wang%NULL%0,                        Bao%Liu%NULL%1,                        Li%Shi%NULL%1,                        Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,   Nan%Wang%xref no email%1,   Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                        Shaowen%Zhang%NULL%2,                        Shaowen%Zhang%NULL%0,                        Zhangfan%Mao%NULL%1,                        Weixing%Wang%13392186@qq.com%1,                        Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                         Zhigang%He%NULL%1,                         Gang%Yu%NULL%1,                         Dan%Peng%NULL%1,                         Yikuan%Feng%NULL%1,                         Jianmin%Ling%NULL%1,                         Ye%Wang%NULL%1,                         Shusheng%Li%NULL%0,                         Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                         Yalan%Zhang%NULL%2,                         Yalan%Zhang%NULL%0,                         Cheng%Gong%NULL%1,                         Jing%Wang%NULL%0,                         Bao%Liu%NULL%1,                         Li%Shi%NULL%1,                         Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,    Nan%Wang%xref no email%1,    Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                         Shaowen%Zhang%NULL%2,                         Shaowen%Zhang%NULL%0,                         Zhangfan%Mao%NULL%1,                         Weixing%Wang%13392186@qq.com%1,                         Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                          Zhigang%He%NULL%1,                          Gang%Yu%NULL%1,                          Dan%Peng%NULL%1,                          Yikuan%Feng%NULL%1,                          Jianmin%Ling%NULL%1,                          Ye%Wang%NULL%1,                          Shusheng%Li%NULL%0,                          Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                          Yalan%Zhang%NULL%2,                          Yalan%Zhang%NULL%0,                          Cheng%Gong%NULL%1,                          Jing%Wang%NULL%0,                          Bao%Liu%NULL%1,                          Li%Shi%NULL%1,                          Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,     Nan%Wang%xref no email%1,     Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                          Shaowen%Zhang%NULL%2,                          Shaowen%Zhang%NULL%0,                          Zhangfan%Mao%NULL%1,                          Weixing%Wang%13392186@qq.com%1,                          Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -706,6 +769,9 @@
       <c r="I1" t="s">
         <v>45</v>
       </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -721,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -734,6 +800,9 @@
       </c>
       <c r="I2" t="s">
         <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +819,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -763,6 +832,9 @@
       </c>
       <c r="I3" t="s">
         <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -779,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -792,6 +864,9 @@
       </c>
       <c r="I4" t="s">
         <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +883,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -821,6 +896,9 @@
       </c>
       <c r="I5" t="s">
         <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/76.xlsx
+++ b/Covid_19_Dataset_and_References/References/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -470,6 +470,30 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                          Shaowen%Zhang%NULL%2,                          Shaowen%Zhang%NULL%0,                          Zhangfan%Mao%NULL%1,                          Weixing%Wang%13392186@qq.com%1,                          Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                           Zhigang%He%NULL%1,                           Gang%Yu%NULL%1,                           Dan%Peng%NULL%1,                           Yikuan%Feng%NULL%1,                           Jianmin%Ling%NULL%1,                           Ye%Wang%NULL%1,                           Shusheng%Li%NULL%0,                           Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                           Yalan%Zhang%NULL%2,                           Yalan%Zhang%NULL%0,                           Cheng%Gong%NULL%1,                           Jing%Wang%NULL%0,                           Bao%Liu%NULL%1,                           Li%Shi%NULL%1,                           Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,      Nan%Wang%xref no email%1,      Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                           Shaowen%Zhang%NULL%2,                           Shaowen%Zhang%NULL%0,                           Zhangfan%Mao%NULL%1,                           Weixing%Wang%13392186@qq.com%1,                           Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                            Zhigang%He%NULL%1,                            Gang%Yu%NULL%1,                            Dan%Peng%NULL%1,                            Yikuan%Feng%NULL%1,                            Jianmin%Ling%NULL%1,                            Ye%Wang%NULL%1,                            Shusheng%Li%NULL%0,                            Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                            Yalan%Zhang%NULL%2,                            Yalan%Zhang%NULL%0,                            Cheng%Gong%NULL%1,                            Jing%Wang%NULL%0,                            Bao%Liu%NULL%1,                            Li%Shi%NULL%1,                            Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yajun%Yuan%xref no email%1,       Nan%Wang%xref no email%1,       Xueqing%Ou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                            Shaowen%Zhang%NULL%2,                            Shaowen%Zhang%NULL%0,                            Zhangfan%Mao%NULL%1,                            Weixing%Wang%13392186@qq.com%1,                            Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -787,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -819,7 +843,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -851,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -883,7 +907,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
